--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620" activeTab="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
   <si>
     <t>create area</t>
   </si>
@@ -391,13 +391,16 @@
   </si>
   <si>
     <t>chưa rõ cần report gì??</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +493,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -568,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -602,6 +611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,20 +787,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
@@ -804,7 +814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -818,7 +828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -832,7 +842,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -846,7 +856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -860,7 +870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -874,7 +884,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
@@ -882,7 +892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>77</v>
       </c>
@@ -890,7 +900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="7" t="s">
         <v>80</v>
       </c>
@@ -898,7 +908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="10" t="s">
         <v>91</v>
       </c>
@@ -906,12 +916,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
@@ -925,14 +935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -946,7 +956,7 @@
     <col min="11" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -963,7 +973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -978,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1008,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1068,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1248,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1293,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1383,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1398,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1443,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1488,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1503,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1623,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1653,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="8"/>
     </row>
   </sheetData>
@@ -1803,19 +1813,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -1823,42 +1836,66 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -1866,7 +1903,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
@@ -1874,47 +1914,74 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
@@ -1922,132 +1989,210 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
